--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,10 +483,130 @@
         <v>3.5</v>
       </c>
       <c r="E2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="n">
         <v>3</v>
       </c>
-      <c r="F2" t="n">
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>A2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Indosat</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Smartfren</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Telkomsel</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tri</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -446,22 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Pelayanan</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Kecepatan</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Kestabilan</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Kecepatan</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Harga</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Pelayanan</t>
         </is>
       </c>
     </row>
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.83</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -549,16 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -573,16 +573,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.67</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>3.83</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -597,16 +597,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.75</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,6 +609,30 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>TriLan</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F8" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,15 +451,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Kecepatan</t>
+          <t>Kestabilan</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Kestabilan</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Harga</t>
         </is>
@@ -485,9 +480,6 @@
       <c r="E2" t="n">
         <v>0</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -509,9 +501,6 @@
       <c r="E3" t="n">
         <v>0</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -533,9 +522,6 @@
       <c r="E4" t="n">
         <v>0</v>
       </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -557,9 +543,6 @@
       <c r="E5" t="n">
         <v>0</v>
       </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -581,9 +564,6 @@
       <c r="E6" t="n">
         <v>0</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -605,9 +585,6 @@
       <c r="E7" t="n">
         <v>0</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -624,12 +601,9 @@
         <v>2.75</v>
       </c>
       <c r="D8" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="E8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="F8" t="n">
         <v>3.5</v>
       </c>
     </row>

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -535,13 +535,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,48 +565,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>XL</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TriLan</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3.5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/tb_alternatif.xlsx
+++ b/database/tb_alternatif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Pelayanan</t>
+          <t>Kecepatan Sinyal</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Kestabilan</t>
+          <t>Harga</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Harga</t>
+          <t>Kestabilan Sinyal</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Pelayanan Operator</t>
         </is>
       </c>
     </row>
@@ -472,13 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.6</v>
+        <v>2.5</v>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>2.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -493,13 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>3.33</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3.33</v>
       </c>
     </row>
     <row r="4">
@@ -514,13 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="5">
@@ -535,13 +549,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -556,13 +573,40 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>XL</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
